--- a/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
+++ b/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A4C9BA-4CB1-4CCA-BB61-A3C1450E9909}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D922E8-2461-41E3-964C-F4AA7897F9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PageTable" sheetId="1" r:id="rId1"/>
-    <sheet name="RISC-V规范" sheetId="2" r:id="rId2"/>
+    <sheet name="技巧记录" sheetId="3" r:id="rId2"/>
+    <sheet name="RISC-V规范" sheetId="2" r:id="rId3"/>
+    <sheet name="第二章" sheetId="4" r:id="rId4"/>
+    <sheet name="xv6" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -145,8 +148,8 @@
       <xdr:row>166</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="矩形 1">
@@ -1757,7 +1760,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="矩形 1">
@@ -3282,8 +3285,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3924300" y="8848725"/>
-          <a:ext cx="16840200" cy="9782175"/>
+          <a:off x="3581400" y="8574405"/>
+          <a:ext cx="15125700" cy="9473565"/>
           <a:chOff x="3924300" y="8848725"/>
           <a:chExt cx="16840200" cy="9782175"/>
         </a:xfrm>
@@ -6905,6 +6908,124 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABD98C5-8B7B-B22B-A4AF-6CB11831D56B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="716280" y="419100"/>
+          <a:ext cx="16360140" cy="8153400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>windows </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>访问 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>wsl</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>的文件目录</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>	//wsl$/xxxx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>make qemu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>强制结束</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>	ctl + a;x;</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -6996,6 +7117,665 @@
             <a:t>根表所在的物理地址</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08360BC7-7376-9EDC-60E2-2F782A08C02D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="228600"/>
+          <a:ext cx="18227040" cy="9852660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>第二章 操作系统组织</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>满足三大需求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>		1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>多路复用（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>multiplexing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>		2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>隔离性（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>isolation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>		3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>交互（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>interaction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>操作系统的实现方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>		1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>以库的形式提供</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>每个程序通过链接库的方式，直接操作硬件设备</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>应用场景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>				a. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>一些嵌入式设备</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>				b. real-time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t> 系统</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>优点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>不同的应用可以有其定制化的库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>充分利用硬件资源来获得高性能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>缺点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>同时运行多个程序的时候，需要这些程序彼此信任</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>周期性释放</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>资源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>但是典型的情况是，程序都会有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>bug</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>，且彼此不信任</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>		2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>以进程的方式运行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>操作系统程序将作为服务端，为其它应用程序提供硬件的操作界面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>操作系统提供了一系列的接口，在满足使用便利性的同时，提供了很好的隔离性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C142FC8-537B-EB5B-BEEC-562FF94CA105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="434340" y="68580"/>
+          <a:ext cx="18585180" cy="9448800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>XV6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>介绍</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>	xv6 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>运行在一个多核</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>-RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>微处理器上。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>	RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>是一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>64-bit CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>	xv6 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>使用 “</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>LP64" C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>语言 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>(C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>语言中的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>long </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>和 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>pointer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>类型大小为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>64-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>类型为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>32-bit)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>	xv6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>代码运行的机器是使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>qemu </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>使用参数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>"-machine virt"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>模拟的，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>包含</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>		RAM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>包含</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>boot code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>ROM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>串行连接到用户的键盘</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>屏幕，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>用于存储的硬盘</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7269,11 +8049,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -7289,6 +8069,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBED14-A6E9-4058-8CE4-AA4CA3DBC18F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BED996-73E7-43FE-910E-3212463D6987}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7296,7 +8099,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -7309,4 +8112,49 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C131B4-3344-40AF-A007-C4F626088FC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7C6AA-8DC9-47BC-94F9-65033771E72C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
+++ b/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D922E8-2461-41E3-964C-F4AA7897F9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043AE36-BAE3-4D7B-8BC4-288A1683EEDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PageTable" sheetId="1" r:id="rId1"/>
-    <sheet name="技巧记录" sheetId="3" r:id="rId2"/>
-    <sheet name="RISC-V规范" sheetId="2" r:id="rId3"/>
-    <sheet name="第二章" sheetId="4" r:id="rId4"/>
+    <sheet name="第二章" sheetId="4" r:id="rId1"/>
+    <sheet name="PageTable" sheetId="1" r:id="rId2"/>
+    <sheet name="技巧记录" sheetId="3" r:id="rId3"/>
+    <sheet name="RISC-V规范" sheetId="2" r:id="rId4"/>
     <sheet name="xv6" sheetId="5" r:id="rId5"/>
+    <sheet name="GDB使用记录" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -84,6 +85,663 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08360BC7-7376-9EDC-60E2-2F782A08C02D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="234314"/>
+          <a:ext cx="20227290" cy="17177386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>第二章 操作系统组织</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>满足三大需求</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>		1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>多路复用（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>multiplexing</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>		2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>隔离性（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>isolation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>		3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>交互（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>interaction</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>操作系统的实现方式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>		1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>以库的形式提供</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>每个程序通过链接库的方式，直接操作硬件设备</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>应用场景</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>				a. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>一些嵌入式设备</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>				b. real-time</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t> 系统</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>优点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>不同的应用可以有其定制化的库</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>充分利用硬件资源来获得高性能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>缺点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>同时运行多个程序的时候，需要这些程序彼此信任</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>周期性释放</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>资源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>但是典型的情况是，程序都会有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>bug</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>，且彼此不信任</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>		2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>以进程的方式运行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>操作系统程序将作为服务端，为其它应用程序提供硬件的操作界面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>操作系统提供了一系列的接口，在满足使用便利性的同时，提供了很好的隔离性</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>隔离性的实现：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>硬件支持三种模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			1. machine mode : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>拥有所有权限</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			2. supervisor mode: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>拥有特殊权限</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			3. user mode: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>正常模式</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>进程型操作系统的两种类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>		1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>宏内核</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>(monolithic)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>所有的操作系统代码都运行在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>下</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>优点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>方便，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>OS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>设计者不需要考虑那些部分需要完整的权限</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				OS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>各部分更容易相互协作</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>例如，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>file system </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>和 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>virtual memory system </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>可以共享一块内存缓冲</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>缺点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>代码都在内核状态下，随着代码量增大出错的概率也增大</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>一点点错误都将是致命的，导致整个内核崩溃</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>		2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>微内核</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>(microkernel)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>只有一小部分关键代码运行在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>supervisor mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>下，其它部分运行在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:t>user mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
+            <a:t>下</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3285,8 +3943,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3581400" y="8574405"/>
-          <a:ext cx="15125700" cy="9473565"/>
+          <a:off x="3924300" y="8848725"/>
+          <a:ext cx="16840200" cy="9782175"/>
           <a:chOff x="3924300" y="8848725"/>
           <a:chExt cx="16840200" cy="9782175"/>
         </a:xfrm>
@@ -6904,7 +7562,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7022,7 +7680,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7034,8 +7692,8 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7051,7 +7709,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2238375" y="200025"/>
-          <a:ext cx="22555200" cy="10963275"/>
+          <a:ext cx="22555200" cy="20412075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7116,7 +7774,1740 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
             <a:t>根表所在的物理地址</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	2.mstatus:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>记录之前的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>machine/supervisor/user</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	3. mepc:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>记录返回地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	——————————————————————————————————————————————————————</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	|    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>别名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	|              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>说明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	 | </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	rd-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>目标寄存器 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	rs-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>源寄存器 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	imm-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>立即数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	(u) -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>u</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后缀表示无符号运算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	1. ecall:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>user mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>转换至 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>，并跳转到指定的内核代码入口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	2. sret:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>返回 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>user mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	3. mret:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>machine mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>返回 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	5. csrr rd, xx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		rd = xx, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>读取一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>csr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>值到寄存器中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>数据移动指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从内存加载数据到寄存器，或寄存器值存储到内存，数据从一个寄存器到另一个，将立即数或标签地址加载到寄存器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		lw rd, imm(rs)		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从内存地址 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(rs + imm)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> 中加载一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>32-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>有符号或无符号字到寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		lh rd, imm(rs)		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从内存地址 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(rs + imm)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 中加载一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>有符号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>半</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字到寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		lhu rd, imm(rs)		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从内存地址 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(rs + imm)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 中加载一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>无符号</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>半</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>字到寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		lb rd, imm(rs)		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从内存地址 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(rs + imm)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 中加载一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>有符号字</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>节</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>到寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		lbu rd, imm(rs)		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从内存地址 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(rs + imm)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 中加载一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>8-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>无</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>符号字节到寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		sw rd, imm(rs)		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>32-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>值存储到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(rs + imm) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>地址内存中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		sh rd, imm(rs)		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>low 16-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>值存储到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(rs + imm) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>地址内存中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		sb rd, imm(rs)		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>low 8-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>值存储到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(rs + imm) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>地址内存中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		mv rd, rs			-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rs </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>复制到 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		li rd, imm			-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将立即数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>imm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>加载到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		la rd, rot/addr		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将地址值</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>addr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>加载到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		L{W|H|HU|B|BU} rd, lab	-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从标签</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定的地址中加载数据到寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，根据后缀加载不同字节数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>		S{W|H|B} rd, lab		-&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>rd</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>值存储到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>lab</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>指定的地址内存中</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>算术指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		add rd, rs1, rs2 	-&gt; rd = rs1 + rs2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		sub rd, rs1, rs2	-&gt; rd = rs1 - rs2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		addi rd rs imm 	-&gt; rd = rs + imm</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		mul rd rs1 rs2  	-&gt; rd = rs1 * rs2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		div(u) rd, rs1,  rs2	-&gt; rd = rs1 / rs2 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		rem(u) rd, rs1, rs2	-&gt; rd = rs1 % rs2</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7125,27 +9516,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>68578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08360BC7-7376-9EDC-60E2-2F782A08C02D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C142FC8-537B-EB5B-BEEC-562FF94CA105}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7153,8 +9544,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="228600"/>
-          <a:ext cx="18227040" cy="9852660"/>
+          <a:off x="434340" y="68578"/>
+          <a:ext cx="20652105" cy="25944197"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7182,310 +9573,1571 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>第二章 操作系统组织</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>XV6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>介绍</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>	xv6 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>运行在一个多核</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>-RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>微处理器上。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>	RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>是一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>64-bit CPU</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>	xv6 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>使用 “</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>LP64" C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>语言 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>(C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>语言中的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>long </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>和 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>pointer </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>类型大小为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>64-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>类型为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>32-bit)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>	xv6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>代码运行的机器是使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>qemu </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>使用参数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>"-machine virt"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>模拟的，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>包含</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			RAM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>包含</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>boot code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>ROM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>串行连接到用户的键盘</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>屏幕，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>用于存储的硬盘</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>	xv6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>属于宏内核</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>满足三大需求</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>启动步骤概览</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
             <a:t>:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-            <a:t>		1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>多路复用（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-            <a:t>multiplexing</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-            <a:t>		2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>隔离性（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-            <a:t>isolation</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>		1. RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>计算机 上电</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>初始化自身</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>运行引导程序 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>boot loader(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>存储在只读</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>ROM</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>启动时，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>paging machine</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>处于禁止状态，所以此时虚拟地址直接映射成物理地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>		2. boot</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t> loader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>xv6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>内核代码加载到内存中</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>boot loader</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>xv6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的内核代码放置在内存地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>0x80000000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>处开始 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(0x0~0x80000000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>是用来连接</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>I/O</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>设备的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>		3. </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>交互（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-            <a:t>interaction</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_entry </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>machine mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>下，每个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>xv6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>代码开始于</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>_entry (kernel/entry.S)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>每个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>cpu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>都设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>4k</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>大小的堆栈大小 （用来运行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>代码）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>起始地址为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>stack0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>根据当前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>号 偏移 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>stack0 + (id + 1) * 4k </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>设置给寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sp</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>然后跳转到 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>start.c</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>文件中的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		4. start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>执行一些 只能在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>machine mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>下完成的配置，接着切换到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>mret </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>用于从一个先前的调用致使从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>切换到 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>machine mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>返回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			start</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>并不是这么一个情况 没有先前的调用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>所以通过设置参数假装有这么一个先前调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>				a. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>设置寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>mstatus(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>保存先前的状态</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> 为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>				b. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>设置寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>mepc (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>保存返回地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>为函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>				c. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>设置寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>satp(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>保存页表地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>来禁用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>paging machine		</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>				d. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将中断和异常都委托给 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>				e. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>对时钟芯片进行编程产生定时器中断</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
             <a:t>	</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>操作系统的实现方式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>最后执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>mret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>跳转到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>		5. main</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>初始化一些设备和子系统</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>通过调用 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>userinit(kernel/proc.c) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>创建了第一个进程</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>		6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>第一个进程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
             <a:t>:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-            <a:t>		1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>以库的形式提供</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>执行一个用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>RISCv</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>汇编写的小程序，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>initcode.S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>		7.initcode.S</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>syscall exec </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>启动程序 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>/init</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>		8.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t> /init</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>程序</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>创建一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>console file</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>打开作为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>fd 0,1,2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>console</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>上启动</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>shell</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>系统调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>exec</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的流程</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		1. user code </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>exec(char *, char **)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的两个参数分别放在寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>a0 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>和 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>a1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>，将系统调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>exec</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的代号数字放在寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>a7</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>			</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>每个程序通过链接库的方式，直接操作硬件设备</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>系统调用的数字代号，是一个函数指针数组的下标，指向了该系统调用函数的入口</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			ecall</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>指令使得陷入内核，依次执行</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>uservec</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>usertrap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>syscall</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		2. syscall</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>			</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>应用场景</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trapframe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>中的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>a7 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>拿到要调用的系统调用号码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>执行相应的系统调用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>之后将返回值放在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trapframe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>a0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>处</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>( C</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>代码 在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>上 默认返回值在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>a0)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>取得参数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>相应的参数都在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trapframe</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>a0~a5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>问题点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-            <a:t>				a. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
-            <a:t>一些嵌入式设备</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
-            <a:t>				b. real-time</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t> 系统</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>				</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>参数是一个指针，且指向的是用户空间的地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>			</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>优点</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>解决</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>				copyinstr </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>进行从用户空间的地址获取相关数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>				copyout </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从内核空间将数据复制到用户空间的地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>				</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>不同的应用可以有其定制化的库</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>通过对用户的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>pagetable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>进行软件上的翻译，将虚拟地址翻译成物理地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>				</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>充分利用硬件资源来获得高性能</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>缺点</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>因为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>kernel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的虚拟地址空间和物理地址空间是直接映射的</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>				</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>同时运行多个程序的时候，需要这些程序彼此信任</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>周期性释放</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>CPU</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>资源</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>				</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>但是典型的情况是，程序都会有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>bug</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>，且彼此不信任</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>		2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>以进程的方式运行</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>操作系统程序将作为服务端，为其它应用程序提供硬件的操作界面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1" baseline="0"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1" baseline="0"/>
-            <a:t>操作系统提供了一系列的接口，在满足使用便利性的同时，提供了很好的隔离性</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>所以得到的物理地址可以直接使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7494,27 +11146,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C142FC8-537B-EB5B-BEEC-562FF94CA105}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E39377-ECF9-4756-B1E0-1A645CB549E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7522,8 +11174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="434340" y="68580"/>
-          <a:ext cx="18585180" cy="9448800"/>
+          <a:off x="1295400" y="742950"/>
+          <a:ext cx="19554825" cy="9629775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7551,231 +11203,503 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>XV6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>介绍</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>程序运行窗口：</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>执行 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>make qemu-gdb</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>gdb</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>运行窗口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
             <a:t>:</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	xv6 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>运行在一个多核</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>-RISC-V</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>微处理器上。</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	RISC-V</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>是一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>64-bit CPU</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	xv6 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>使用 “</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>LP64" C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>语言 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>(C</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>语言中的 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>long </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>和 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>pointer </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>类型大小为 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>64-bit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>int</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>类型为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>32-bit)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>	xv6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>代码运行的机器是使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>qemu </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>使用参数 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>"-machine virt"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>模拟的，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>包含</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		RAM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>包含</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>boot code</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>ROM</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>串行连接到用户的键盘</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>/</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>屏幕，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
-            <a:t>用于存储的硬盘</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>执行 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>gdb-multiarch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>执行 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>target remote localhost: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>端口号</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>file kernel/kernel</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>b syscall(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>断点函数名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	c (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>继续</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	n(next</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>下一条</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	layout src (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>分裂窗口 显示源代码位置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	backtrace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>显示调用堆栈信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	p(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>打印变量信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)    /x(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>以</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>进制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)    *p(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>要打印的变量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8046,6 +11970,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C131B4-3344-40AF-A007-C4F626088FC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8053,7 +12000,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -8068,7 +12015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EBED14-A6E9-4058-8CE4-AA4CA3DBC18F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8076,32 +12023,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
-  </cols>
-  <sheetData/>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1048576"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BED996-73E7-43FE-910E-3212463D6987}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -8115,16 +12039,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C131B4-3344-40AF-A007-C4F626088FC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BED996-73E7-43FE-910E-3212463D6987}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -8141,13 +12065,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7C6AA-8DC9-47BC-94F9-65033771E72C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -8157,4 +12081,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC90E58-F607-44AC-93BD-30BDA1789A54}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
+++ b/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D043AE36-BAE3-4D7B-8BC4-288A1683EEDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACA9BD-57B1-465E-B943-ABB74FF383A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第二章" sheetId="4" r:id="rId1"/>
@@ -7671,7 +7671,47 @@
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
             <a:t>	ctl + a;x;</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>进入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>qemu</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>控制台</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>	clt +a; c;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>	info mem; // </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" baseline="0"/>
+            <a:t>打印完整的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" baseline="0"/>
+            <a:t>page table</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -7692,8 +7732,8 @@
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7709,7 +7749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2238375" y="200025"/>
-          <a:ext cx="22555200" cy="20412075"/>
+          <a:ext cx="22555200" cy="23298150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7780,7 +7820,42 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	2.mstatus:</a:t>
+            <a:t>	4. stvec:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		kernel </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>写入 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap handler </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>代码段的地址，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>RSIC-V CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>会自动跳转到此处进行 陷阱处理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	5. sepc:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7791,23 +7866,288 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>记录之前的</a:t>
+            <a:t>当</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>发生时，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>保存当前</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>于此</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>因为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>即将被改写为 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>stvec</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>中记录的地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		sret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>指令会将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sepc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>内容写会</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>pc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		kernel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>可以改写</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sepc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>来控制返回的具体位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	6. scause:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>发生的原因</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>值表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>写入此处</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	7. sscratch:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>放置一个值在此处，此值在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>处理一开始就用得上</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	8. sstatus:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>此寄存器的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>SIE bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>位控制设备中断是否允许，如果不被允许则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>RISC-V</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>会推迟设备中断知道</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>kernel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>重新设置为允许</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		SPP bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>位指示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>是来自</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>user mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>还是 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>，并控制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sret</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>返回的</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
             <a:t>mode</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>machine/supervisor/user</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>）</a:t>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	9. stval:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>保存引发</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>page fault</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的具体虚拟地址</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
         </a:p>
@@ -7815,7 +8155,469 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	3. mepc:</a:t>
+            <a:t>	4~8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>寄存器只在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>下处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>有用，无法再</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>user mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>下读取或写入</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>machine mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>下处理 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>有一组等效的寄存器， </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>xv6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>只会在时间中断的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>case</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>下使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>多核</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>每个都有一组这样的寄存器，且同一时间可以有多个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>CPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>同时处理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	——————————————————————————————————————————————————————</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	|    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>别名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	|              </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>说明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	 | </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>中断处理机制</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>如果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>是一个 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>device interrupt </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>且 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sstatus</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>SIE bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>位为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>，将不做下面的步骤</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>SIE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>来禁止中断</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	3. copy pc -&gt; sepc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	4. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>保存当前的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>mode (user or supervisor) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>SPP </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	5. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>设置</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>scause</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>反映</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>trap</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的原因</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	6. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>切换到 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	7. copy stvec -&gt; pc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	8. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>开始在新的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>pc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>出继续执行</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>: </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	rd-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>目标寄存器 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	rs-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>源寄存器 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	imm-&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>立即数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	(u) -&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>u</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后缀表示无符号运算</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	1. ecall:</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -7826,7 +8628,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>记录返回地址</a:t>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>user mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>转换至 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>，并跳转到指定的内核代码入口</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
         </a:p>
@@ -7834,266 +8652,148 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	——————————————————————————————————————————————————————</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>寄存器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	|    </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>别名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	|              </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>说明</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	 | </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+            <a:t>	2. sret:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>返回 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>user mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	3. mret:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>从</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>machine mode </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>返回 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>supervisor mode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	4. sfence_vma:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>清空</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>TLB</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	5. csrr rd, xx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		rd = xx, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>读取一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>csr</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>值到寄存器中</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>指令</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>: </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	(</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	rd-&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>目标寄存器 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	rs-&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>源寄存器 </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	imm-&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>立即数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	(u) -&gt; </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>u</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1600" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>后缀表示无符号运算</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	1. ecall:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>从</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>user mode </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>转换至 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>supervisor mode</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>，并跳转到指定的内核代码入口</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	2. sret:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>从</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>supervisor mode </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>返回 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>user mode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	3. mret:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>从</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>machine mode </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>返回 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>supervisor mode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	5. csrr rd, xx</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		rd = xx, </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>读取一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>csr</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>值到寄存器中</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	. auipc (add upper immediate to pc </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>寄存器高位加上立即数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	. jarl (jump add link register</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -11220,7 +11920,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>make qemu-gdb</a:t>
+            <a:t>make CPUS=1 qemu-gdb </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -11268,7 +11968,7 @@
             <a:t>执行 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11280,7 +11980,7 @@
             <a:t>target remote localhost: </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11291,7 +11991,7 @@
             </a:rPr>
             <a:t>端口号</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -11304,7 +12004,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11316,7 +12016,7 @@
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11328,7 +12028,7 @@
             <a:t>执行 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11343,7 +12043,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11355,7 +12055,7 @@
             <a:t>	</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11367,7 +12067,7 @@
             <a:t>执行 </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11379,7 +12079,7 @@
             <a:t>b syscall(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11391,7 +12091,7 @@
             <a:t>断点函数名</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11406,7 +12106,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11418,7 +12118,7 @@
             <a:t>	c (</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11430,7 +12130,7 @@
             <a:t>继续</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11445,7 +12145,46 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	si(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行一条汇编指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11457,7 +12196,7 @@
             <a:t>	n(next</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11469,7 +12208,7 @@
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11481,7 +12220,7 @@
             <a:t>下一条</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11492,7 +12231,7 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -11505,19 +12244,19 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>	layout src (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	layout src/asm/split/reg (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11529,7 +12268,7 @@
             <a:t>分裂窗口 显示源代码位置</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11544,19 +12283,55 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>	backtrace</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	focus</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> src/../.. (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>聚焦在某个窗口上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11567,19 +12342,82 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>显示调用堆栈信息</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	tui</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> enable</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>打开源代码窗口</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
             <a:solidFill>
               <a:schemeClr val="lt1"/>
             </a:solidFill>
@@ -11592,7 +12430,55 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	backtrace</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>显示调用堆栈信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11604,7 +12490,7 @@
             <a:t>	p(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11616,7 +12502,7 @@
             <a:t>打印变量信息</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11628,7 +12514,7 @@
             <a:t>)    /x(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11640,7 +12526,7 @@
             <a:t>以</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11652,7 +12538,7 @@
             <a:t>16</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11664,7 +12550,7 @@
             <a:t>进制</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11676,7 +12562,7 @@
             <a:t>)    *p(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11688,7 +12574,187 @@
             <a:t>要打印的变量</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	info breakpoints (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>显示所有的断点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	info reg (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>显示寄存器信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	delete (</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>删除所有断点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>	apropos tui</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（显示所有相关</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TUI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -11996,7 +13062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12042,7 +13108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BED996-73E7-43FE-910E-3212463D6987}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12065,7 +13131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7C6AA-8DC9-47BC-94F9-65033771E72C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12087,7 +13153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC90E58-F607-44AC-93BD-30BDA1789A54}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
+++ b/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFACA9BD-57B1-465E-B943-ABB74FF383A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A48045-5FDD-4711-BE38-E61F2118357C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第二章" sheetId="4" r:id="rId1"/>
     <sheet name="PageTable" sheetId="1" r:id="rId2"/>
     <sheet name="技巧记录" sheetId="3" r:id="rId3"/>
     <sheet name="RISC-V规范" sheetId="2" r:id="rId4"/>
-    <sheet name="xv6" sheetId="5" r:id="rId5"/>
-    <sheet name="GDB使用记录" sheetId="6" r:id="rId6"/>
+    <sheet name="RISC-V架构" sheetId="7" r:id="rId5"/>
+    <sheet name="xv6" sheetId="5" r:id="rId6"/>
+    <sheet name="GDB使用记录" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -10220,6 +10221,104 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E0964AC-4F78-45A5-ABF6-900AE47B7B7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="190500"/>
+          <a:ext cx="22183725" cy="11353800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>ABI (application binary interface):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>由基础指令集和操作系统混合提供给应用程序的接口，定义了跨计算机二进制移植的标准</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>ISA(instruction set architecture):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" b="1"/>
+            <a:t>位于硬件和底层软件中间的接口，包含了写正确机器语言软件所需要的所有信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -11846,7 +11945,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13108,7 +13207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BED996-73E7-43FE-910E-3212463D6987}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13128,6 +13227,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C74495B-C32E-44F8-9C58-48E6D0C96B5B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7C6AA-8DC9-47BC-94F9-65033771E72C}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13149,7 +13271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC90E58-F607-44AC-93BD-30BDA1789A54}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
+++ b/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7A48045-5FDD-4711-BE38-E61F2118357C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20EB4B8-037F-412C-9883-7F3514DFFE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第二章" sheetId="4" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="RISC-V架构" sheetId="7" r:id="rId5"/>
     <sheet name="xv6" sheetId="5" r:id="rId6"/>
     <sheet name="GDB使用记录" sheetId="6" r:id="rId7"/>
+    <sheet name="for merge" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3944,8 +3945,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3924300" y="8848725"/>
-          <a:ext cx="16840200" cy="9782175"/>
+          <a:off x="3581400" y="8574405"/>
+          <a:ext cx="15125700" cy="9473565"/>
           <a:chOff x="3924300" y="8848725"/>
           <a:chExt cx="16840200" cy="9782175"/>
         </a:xfrm>
@@ -12873,6 +12874,967 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2740CA80-D370-59C9-119B-A7CA1254011A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533400" y="220980"/>
+          <a:ext cx="18737580" cy="19796760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+            <a:t>指令部分</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>	lui	-&gt; Load</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t> upper immediate </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>加载一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>20-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的常数到一个寄存器的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>[31:12]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>部分，最左的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>[63:32]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>填充与</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>31</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>位一致，最右边的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>位</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>[11:0]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>填充</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>实现锁功能</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	lr.d	-&gt; load-reserved doubleword	</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	sc.d	-&gt; store-conditional doubleword </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将一个寄存器的值存储到内存的一个位置，如果成功将另一个寄存器值置为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>，否则置为非零值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>顺序使用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>先使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>lr.d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>在内存的一个位置存储一个保留值</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>当</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sc.d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>执行之前这个保留值被改变，则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sc.d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将失败</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>原子交换 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>x23 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>和 内存</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(x20)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		again: 	lr.d x10, (x20)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			sc.d x11, x23, (x20)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			bne x11, x0, again</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			addi x23, x10, 0</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>实际原理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>为了完成原子操作，交换寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>x23 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>和 内存地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(x20)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>第一步，先使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>lr.d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>预读取内存地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(x20)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的内容</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>第二步，在使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sc.d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将寄存器</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>x23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的值写入内存地址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(x20)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>是，先检查</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(x20)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的内容是否在 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>lr.d </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>和 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>sc.d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>之间被其它指令修改过</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>如果修改过，则放弃当前操作，重新回到第一步，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>			</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>如果没有，确保这次交换是一个原子操作</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>伪指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		li	-&gt; load imm eg. li x9, 123</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		mv	-&gt; move	eg. mv rd, rs</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>指令类型</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	SB-type: (bne rs1, rs2, imm  imm </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>是相对于当前指令地址的偏移量 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>imm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>有 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>12-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>可以表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	————————————————————————————————————————</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	|imm[12]	|imm[10:5]     |rs2	|rs1	|funt3	|imm[4:1]	|imm[11]	|opcode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	|1-bit	|6-bit	      |5-bit   |5-bit         |3-bit          |4-bit         |1-bit	|7-bit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	————————————————————————————————————————</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	UJ-type: (eg. jal x0 imm imm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>20-bit</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>可以表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	————————————————————————————————————————</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	|imm[20]   |imm[10:1]                  |imm[11]  |imm[9:12] |rd		|opcode</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	|1-bit	 |10-bit		|1-bit	|3-bit	  |5-bit		|7-bit</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	————————————————————————————————————————</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>寻址模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>直接寻址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(immediate address):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>操作数是指令本身的一个常数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>寄存器寻址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(register address):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>操作数是一个寄存器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>基址寻址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(base/displacement address):</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>操作数是内存的一个地址，地址为寄存器的值加上指令中的常数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	4. PC-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>间接寻址</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>(PC-relative)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>分支地址为指令中的常数加上当前指令的地址</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>Unix</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>Object file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>包含的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>个独立部分</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	1. object file header:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>描述其它独立部分的起始位置和大小</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	2. text segment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>包含机器码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	3. static data segment:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>包含那些贯穿整个应用程序生命周期的变量数据</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	4. relocation information:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>记录所有需要对指令中地址进行确认的指令</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	5.symbol table:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>包含未定义的那些标签，需要在其它的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>object file</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>中寻找</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	6.debugging information:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>Linker</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>的三个步骤</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	1. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>将代码和数据模块象征性的放入内存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>确定数据地址和指令</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>label</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>	3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>修复内部和外部引用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            <a:t>		</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -13142,9 +14104,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -13165,7 +14127,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -13188,9 +14150,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -13207,11 +14169,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BED996-73E7-43FE-910E-3212463D6987}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B70" workbookViewId="0">
+    <sheetView topLeftCell="B28" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -13230,11 +14192,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C74495B-C32E-44F8-9C58-48E6D0C96B5B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -13253,13 +14215,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7C6AA-8DC9-47BC-94F9-65033771E72C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -13279,7 +14241,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -13292,4 +14254,27 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E04D13-76D8-4F81-A108-96526882899C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:XFD1048576"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
+++ b/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20EB4B8-037F-412C-9883-7F3514DFFE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BEC425-7CBE-44FB-B9F7-C56E3F707D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第二章" sheetId="4" r:id="rId1"/>
@@ -12941,247 +12941,21 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>	lui	-&gt; Load</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t> upper immediate </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>加载一个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>20-bit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>的常数到一个寄存器的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>[31:12]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>部分，最左的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>32</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>位</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>[63:32]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>填充与</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>31</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>位一致，最右边的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>12</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>位</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>[11:0]</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>填充</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>实现锁功能</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	lr.d	-&gt; load-reserved doubleword	</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	sc.d	-&gt; store-conditional doubleword </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>将一个寄存器的值存储到内存的一个位置，如果成功将另一个寄存器值置为</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>0</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>，否则置为非零值</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>顺序使用</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>先使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>lr.d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>在内存的一个位置存储一个保留值</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>当</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>sc.d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>执行之前这个保留值被改变，则</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>sc.d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>将失败</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>原子交换 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>x23 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>和 内存</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(x20)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>的内容</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		again: 	lr.d x10, (x20)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>			sc.d x11, x23, (x20)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>			bne x11, x0, again</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>			addi x23, x10, 0</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>实际原理</a:t>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+            <a:t>指令类型</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
@@ -13190,635 +12964,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>为了完成原子操作，交换寄存器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>x23 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>和 内存地址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(x20)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>的内容</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>第一步，先使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>lr.d </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>预读取内存地址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(x20)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>的内容</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>第二步，在使用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>sc.d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>将寄存器</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>x23</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>的值写入内存地址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(x20)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>是，先检查</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(x20)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>的内容是否在 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>lr.d </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>和 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>sc.d</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>之间被其它指令修改过</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>如果修改过，则放弃当前操作，重新回到第一步，</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>			</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>如果没有，确保这次交换是一个原子操作</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>伪指令</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		li	-&gt; load imm eg. li x9, 123</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		mv	-&gt; move	eg. mv rd, rs</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>指令类型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	SB-type: (bne rs1, rs2, imm  imm </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>是相对于当前指令地址的偏移量 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>imm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>有 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>12-bit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>可以表示</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	————————————————————————————————————————</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	|imm[12]	|imm[10:5]     |rs2	|rs1	|funt3	|imm[4:1]	|imm[11]	|opcode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	|1-bit	|6-bit	      |5-bit   |5-bit         |3-bit          |4-bit         |1-bit	|7-bit</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	————————————————————————————————————————</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	UJ-type: (eg. jal x0 imm imm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>有</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>20-bit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>可以表示</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	————————————————————————————————————————</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	|imm[20]   |imm[10:1]                  |imm[11]  |imm[9:12] |rd		|opcode</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	|1-bit	 |10-bit		|1-bit	|3-bit	  |5-bit		|7-bit</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	————————————————————————————————————————</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>寻址模式</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>直接寻址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(immediate address):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>操作数是指令本身的一个常数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>寄存器寻址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(register address):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>操作数是一个寄存器</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>基址寻址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(base/displacement address):</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>操作数是内存的一个地址，地址为寄存器的值加上指令中的常数</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	4. PC-</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>间接寻址</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>(PC-relative)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>分支地址为指令中的常数加上当前指令的地址</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>Unix</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>Object file</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>包含的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>6</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>个独立部分</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	1. object file header:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>描述其它独立部分的起始位置和大小</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	2. text segment:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>包含机器码</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	3. static data segment:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>包含那些贯穿整个应用程序生命周期的变量数据</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	4. relocation information:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>记录所有需要对指令中地址进行确认的指令</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	5.symbol table:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>包含未定义的那些标签，需要在其它的</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>object file</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>中寻找</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	6.debugging information:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>Linker</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>的三个步骤</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>将代码和数据模块象征性的放入内存</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>确定数据地址和指令</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>label</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>	3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>修复内部和外部引用</a:t>
-          </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
         </a:p>
         <a:p>
@@ -14104,9 +13249,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -14127,7 +13272,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -14150,9 +13295,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -14173,7 +13318,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -14196,7 +13341,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -14219,9 +13364,9 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">
@@ -14241,7 +13386,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -14260,13 +13405,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E04D13-76D8-4F81-A108-96526882899C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData/>
   <mergeCells count="1">

--- a/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
+++ b/OS/MIT6.S081/MIT6.S081-2020fall-master/Notes.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4BEC425-7CBE-44FB-B9F7-C56E3F707D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868ADB5F-570B-407B-94CA-EC957A43A820}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="18690" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="第二章" sheetId="4" r:id="rId1"/>
@@ -12889,92 +12889,220 @@
       <xdr:row>114</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2740CA80-D370-59C9-119B-A7CA1254011A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="533400" y="220980"/>
-          <a:ext cx="18737580" cy="19796760"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
-            <a:t>指令部分</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
-            <a:t>指令类型</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
-            <a:t>		</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="矩形 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2740CA80-D370-59C9-119B-A7CA1254011A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="533400" y="220980"/>
+              <a:ext cx="18737580" cy="19796760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+                <a:t>指令部分</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+                <a:t>:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:bar>
+                      <m:barPr>
+                        <m:pos m:val="top"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:barPr>
+                      <m:e>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="1" baseline="0">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>a</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:bar>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+                <a:t>指令类型</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+                <a:t>:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+                <a:t>		</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="矩形 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2740CA80-D370-59C9-119B-A7CA1254011A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="533400" y="220980"/>
+              <a:ext cx="18737580" cy="19796760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1"/>
+                <a:t>指令部分</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+                <a:t>:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>¯a</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1" baseline="0"/>
+                <a:t>指令类型</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+                <a:t>:</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1" baseline="0"/>
+                <a:t>		</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
